--- a/Protege/methontology.xlsx
+++ b/Protege/methontology.xlsx
@@ -5,198 +5,203 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="50" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Sinonimo</t>
-  </si>
-  <si>
-    <t>Acronimo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Relacion</t>
-  </si>
-  <si>
-    <t>Familia</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Se refiere al nombre o al apellido heredado de la familia</t>
-  </si>
-  <si>
-    <t>Reside</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Palabra que designa una persona, lugar o cosa</t>
-  </si>
-  <si>
-    <t>Propiedad</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Apodo</t>
-  </si>
-  <si>
-    <t>Seudonimo</t>
-  </si>
-  <si>
-    <t>Nombre similar en origen o pronunciación al del nombre original</t>
-  </si>
-  <si>
-    <t>Integrante</t>
-  </si>
-  <si>
-    <t>Vinculo</t>
-  </si>
-  <si>
-    <t>Correspondencia o conexión que hay entre dos o más cosas</t>
-  </si>
-  <si>
-    <t>Dueño</t>
-  </si>
-  <si>
-    <t>Mascota</t>
-  </si>
-  <si>
-    <t>Persona, animal o cosa que sirve de compañía</t>
-  </si>
-  <si>
-    <t>Tiene</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>creencia</t>
-  </si>
-  <si>
-    <t>Conjunto de creencias, normas de comportamiento y ceremonias de oración o sacrificio que son propias de un determinado grupo humano</t>
-  </si>
-  <si>
-    <t>Ciudades</t>
-  </si>
-  <si>
-    <t>localidad</t>
-  </si>
-  <si>
-    <t>Población donde habita un conjunto de personas, animales o cosas</t>
-  </si>
-  <si>
-    <t>Ubica</t>
-  </si>
-  <si>
-    <t>Zona</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Superficie acotada, que se distingue de lo que la rodea</t>
-  </si>
-  <si>
-    <t>Organzacion</t>
-  </si>
-  <si>
-    <t>Integran</t>
-  </si>
-  <si>
-    <t>Organizaciones</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>Grupo de personas, animales o cosas organizados con un fin determinado.</t>
-  </si>
-  <si>
-    <t>Relaciona</t>
-  </si>
-  <si>
-    <t>Rango social</t>
-  </si>
-  <si>
-    <t>Pertenece</t>
-  </si>
-  <si>
-    <t>Objetos</t>
-  </si>
-  <si>
-    <t>elemento</t>
-  </si>
-  <si>
-    <t>Cosa material inanimada, generalmente de tamaño pequeño o mediano, que puede ser percibida por los sentidos</t>
-  </si>
-  <si>
-    <t>Lemas</t>
-  </si>
-  <si>
-    <t>emblema</t>
-  </si>
-  <si>
-    <t>Frase o enunciado que expresan una aspiración o ideal, o un pensamiento que sirve de guía a la conducta de alguien</t>
-  </si>
-  <si>
-    <t>Nombre de la regla</t>
-  </si>
-  <si>
-    <t>Expresion</t>
-  </si>
-  <si>
-    <t>Persona es dueño de 
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinonimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se refiere al nombre o al apellido heredado de la familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palabra que designa una persona, lugar o cosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propiedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seudonimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre similar en origen o pronunciación al del nombre original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondencia o conexión que hay entre dos o más cosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dueño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona, animal o cosa que sirve de compañía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de creencias, normas de comportamiento y ceremonias de oración o sacrificio que son propias de un determinado grupo humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Población donde habita un conjunto de personas, animales o cosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superficie acotada, que se distingue de lo que la rodea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organzacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo de personas, animales o cosas organizados con un fin determinado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaciona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertenece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosa material inanimada, generalmente de tamaño pequeño o mediano, que puede ser percibida por los sentidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emblema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frase o enunciado que expresan una aspiración o ideal, o un pensamiento que sirve de guía a la conducta de alguien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la regla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona es dueño de 
 Mascota</t>
   </si>
   <si>
-    <t>Una mascota en un animal
+    <t xml:space="preserve">Una mascota en un animal
 Que pertenece a una 
 persona(dueño)</t>
   </si>
   <si>
-    <t>si animal(?X) ^
+    <t xml:space="preserve">si animal(?X) ^
 persona(?Y) ^
 pertenece(?X, ?Y)
 entonces
 mascota(?X)</t>
   </si>
   <si>
-    <t>Persona es hermano 
+    <t xml:space="preserve">Persona es hermano 
 De persona</t>
   </si>
   <si>
-    <t>Una persona es hermano
+    <t xml:space="preserve">Una persona es hermano
 o hermana de una 
 persona si son hijos de
 una misma persona</t>
   </si>
   <si>
-    <t>Si persona(?X) ^persona(?Y) ^
+    <t xml:space="preserve">Si persona(?X) ^persona(?Y) ^
 persona(?Z) ^
 descendiente(?Y, ?X) ^
 descendiente(?Z, ?X)
@@ -204,15 +209,15 @@
 Hermandad(?Y, ?Z)</t>
   </si>
   <si>
-    <t>Ubicacion persona</t>
-  </si>
-  <si>
-    <t>Una persona se encuentra
+    <t xml:space="preserve">Ubicacion persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una persona se encuentra
 en la region a donde 
 Pertenece una ciudad</t>
   </si>
   <si>
-    <t>Si persona(?X) ^ 
+    <t xml:space="preserve">Si persona(?X) ^ 
 ciudad(?Y) ^
 region(?Z) ^
 [se ubica] (?Y, ?Z)
@@ -220,24 +225,25 @@
 [se ubica] (?X, ?Z)</t>
   </si>
   <si>
-    <t>Nombre del axioma</t>
-  </si>
-  <si>
-    <t>Hijo bastardo</t>
-  </si>
-  <si>
-    <t>Una persona es hijo
+    <t xml:space="preserve">Nombre del axioma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hijo bastardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una persona es hijo
 bastardo si uno de sus 
 parentescoz no es su
 Parentesco biologico</t>
   </si>
   <si>
-    <t>Vx bastardo
+    <t xml:space="preserve">Vx bastardo
 (persona (?X) ^
 persona (?Y) ^
 persona (?Z) ^
-descendiente(?Y, ?X) ^
-¬(descendiente(?Z, ?X)))</t>
+[está casado](?Y, ?Z) ^
+descendiente(?X, ?Y) ^
+¬(descendiente(?X, ?Z)))</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -362,19 +368,19 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.392857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="114.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
@@ -811,7 +817,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
